--- a/NAS-KIPRE (Responses).xlsx
+++ b/NAS-KIPRE (Responses).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -18,25 +26,31 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1. Directorate</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
   </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(Please indicate the directorate you currently work in or expect to work in)  </t>
     </r>
@@ -44,25 +58,31 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2. Division/Section</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
  </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Please select your division or section)  </t>
     </r>
@@ -70,17 +90,21 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>3. Role/position</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Please state your current job title or position)  </t>
@@ -89,25 +113,31 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">4. Types of data collected or managed </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
   What types of data does your section routinely collect or manage?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Tick or specify as appropriate)  </t>
@@ -116,25 +146,31 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>5. Software in use</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 What software applications do you currently use for data entry, processing, or analysis?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Tick all that apply)</t>
@@ -143,16 +179,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>6. Data collection tools in use</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 
 What digital or manual tools do you currently use for data collection?
@@ -162,25 +202,31 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>7. Databases in use</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 
 What databases or data management platforms does your section use for storing and organizing data?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Tick all that apply)</t>
@@ -189,34 +235,42 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>8. Data quality
 a) Accuracy, Completeness, Consistency, Reliability</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 To what extent are the data in your section accurate, complete, consistent, and reliable?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [Accuracy]</t>
     </r>
@@ -224,34 +278,42 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>8. Data quality
 a) Accuracy, Completeness, Consistency, Reliability</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 To what extent are the data in your section accurate, complete, consistent, and reliable?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [Completeness]</t>
     </r>
@@ -259,34 +321,42 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>8. Data quality
 a) Accuracy, Completeness, Consistency, Reliability</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 To what extent are the data in your section accurate, complete, consistent, and reliable?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [Consistency]</t>
     </r>
@@ -294,34 +364,42 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>8. Data quality
 a) Accuracy, Completeness, Consistency, Reliability</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 To what extent are the data in your section accurate, complete, consistent, and reliable?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [Reliability]</t>
     </r>
@@ -329,34 +407,42 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9. Data Integrity
 Data security and protection</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 To what extent are your data protected from unauthorized changes, corruption, or loss?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Please rate on a scale of 1–5, where 1 = Not Protected and 5 = Fully Protected)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [Access Control]</t>
     </r>
@@ -364,34 +450,42 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9. Data Integrity
 Data security and protection</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 To what extent are your data protected from unauthorized changes, corruption, or loss?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Please rate on a scale of 1–5, where 1 = Not Protected and 5 = Fully Protected)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [Backups/Redundancy]</t>
     </r>
@@ -399,34 +493,42 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9. Data Integrity
 Data security and protection</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 To what extent are your data protected from unauthorized changes, corruption, or loss?</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Please rate on a scale of 1–5, where 1 = Not Protected and 5 = Fully Protected)</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [Versioning/Change logs]</t>
     </r>
@@ -434,16 +536,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10. Critical analytical outputs</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 What kinds of statistical or analytical outputs are most critical to your work?
@@ -451,9 +557,11 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Tick all that apply)</t>
     </r>
@@ -461,16 +569,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>11. Frequency of analytical support</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 How frequently do you require analytical support?</t>
@@ -479,16 +591,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>12. Data utilization for decision-making</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Are there areas where you feel your data are under-utilized for decision-making?</t>
@@ -497,16 +613,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>13. Staff handling data</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Does your section have staff members who handle data?</t>
@@ -515,32 +635,40 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>14. Number of staff handling data</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 If </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Yes</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, how many staff members handle data management and/or analysis tasks?</t>
     </r>
@@ -548,16 +676,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>15. Level of training in data science / analytics</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 What is the current level of training of your staff in data science or advanced analytics?
@@ -565,9 +697,11 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Tick the most appropriate level)</t>
     </r>
@@ -575,25 +709,31 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>16. Additional skills / training needed</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Which additional skills or training would strengthen your team? </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Select all that apply)</t>
     </r>
@@ -601,25 +741,31 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>17. Challenges in data security and compliance</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 What challenges does your section face regarding data security, confidentiality, or compliance with data-sharing regulations? </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(Select all that apply)</t>
     </r>
@@ -627,16 +773,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>18. Documented policies or SOPs</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Does your section have documented data-management policies or standard operating procedures (SOPs)?</t>
@@ -645,16 +795,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>19. Awareness of data-sharing and protection guidelines</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Are you aware of the institute’s data-sharing and protection policy of 2024?</t>
@@ -666,16 +820,20 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Data Protection Act of 2019</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> and its requirements?  </t>
     </r>
@@ -686,25 +844,31 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>22. Gaps in governance / security</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Are there gaps in your current data governance or security that you would like addressed? </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Tick all that apply / open-ended)</t>
@@ -713,16 +877,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>23. Support from the data science &amp; analytics section</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 How can the Data Science &amp; Analytics Section best support your section’s goals?
@@ -730,9 +898,11 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Open-ended)</t>
     </r>
@@ -740,16 +910,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>24. Opportunities for collaboration</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Are there specific projects or upcoming studies where collaboration with the Data Science &amp; Analytics Section would be valuable?
@@ -757,9 +931,11 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Open-ended)</t>
     </r>
@@ -767,25 +943,31 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>25. Additional comments or suggestions</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Do you have any other comments or suggestions regarding data management, analysis, or support from the Data Science &amp; Analytics Section? </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <i/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 (Open-ended)</t>
@@ -1383,33 +1565,67 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -1423,6 +1639,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1437,6 +1654,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1451,6 +1669,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1465,6 +1684,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1479,6 +1699,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1493,6 +1714,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1507,6 +1729,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1521,6 +1744,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1535,6 +1759,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1549,6 +1774,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1563,6 +1789,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1577,161 +1804,160 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Form responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Form responses 1-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AE26" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Form_Responses" displayName="Form_Responses" ref="A1:AE26" headerRowDxfId="0">
   <tableColumns count="31">
-    <tableColumn name="Timestamp" id="1"/>
-    <tableColumn name="1. Directorate_x000a_  (Please indicate the directorate you currently work in or expect to work in)  " id="2"/>
-    <tableColumn name="2. Division/Section_x000a_  (Please select your division or section)  " id="3"/>
-    <tableColumn name="3. Role/position_x000a_(Please state your current job title or position)  " id="4"/>
-    <tableColumn name="4. Types of data collected or managed _x000a_  What types of data does your section routinely collect or manage?_x000a_(Tick or specify as appropriate)  " id="5"/>
-    <tableColumn name="5. Software in use_x000a_What software applications do you currently use for data entry, processing, or analysis?_x000a_(Tick all that apply)" id="6"/>
-    <tableColumn name="6. Data collection tools in use _x000a_What digital or manual tools do you currently use for data collection?_x000a_(Tick all that apply)" id="7"/>
-    <tableColumn name="7. Databases in use _x000a_What databases or data management platforms does your section use for storing and organizing data?_x000a_(Tick all that apply)" id="8"/>
-    <tableColumn name="8. Data quality_x000a_a) Accuracy, Completeness, Consistency, Reliability_x000a_To what extent are the data in your section accurate, complete, consistent, and reliable?_x000a_(Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent) [Accuracy]" id="9"/>
-    <tableColumn name="8. Data quality_x000a_a) Accuracy, Completeness, Consistency, Reliability_x000a_To what extent are the data in your section accurate, complete, consistent, and reliable?_x000a_(Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent) [Completeness]" id="10"/>
-    <tableColumn name="8. Data quality_x000a_a) Accuracy, Completeness, Consistency, Reliability_x000a_To what extent are the data in your section accurate, complete, consistent, and reliable?_x000a_(Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent) [Consistency]" id="11"/>
-    <tableColumn name="8. Data quality_x000a_a) Accuracy, Completeness, Consistency, Reliability_x000a_To what extent are the data in your section accurate, complete, consistent, and reliable?_x000a_(Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent) [Reliability]" id="12"/>
-    <tableColumn name="9. Data Integrity_x000a_Data security and protection_x000a_To what extent are your data protected from unauthorized changes, corruption, or loss?_x000a_(Please rate on a scale of 1–5, where 1 = Not Protected and 5 = Fully Protected) [Access Control]" id="13"/>
-    <tableColumn name="9. Data Integrity_x000a_Data security and protection_x000a_To what extent are your data protected from unauthorized changes, corruption, or loss?_x000a_(Please rate on a scale of 1–5, where 1 = Not Protected and 5 = Fully Protected) [Backups/Redundancy]" id="14"/>
-    <tableColumn name="9. Data Integrity_x000a_Data security and protection_x000a_To what extent are your data protected from unauthorized changes, corruption, or loss?_x000a_(Please rate on a scale of 1–5, where 1 = Not Protected and 5 = Fully Protected) [Versioning/Change logs]" id="15"/>
-    <tableColumn name="10. Critical analytical outputs_x000a_What kinds of statistical or analytical outputs are most critical to your work?_x000a_  (Tick all that apply)" id="16"/>
-    <tableColumn name="11. Frequency of analytical support_x000a_How frequently do you require analytical support?" id="17"/>
-    <tableColumn name="12. Data utilization for decision-making_x000a_Are there areas where you feel your data are under-utilized for decision-making?" id="18"/>
-    <tableColumn name="13. Staff handling data_x000a_Does your section have staff members who handle data?" id="19"/>
-    <tableColumn name="14. Number of staff handling data_x000a_If Yes, how many staff members handle data management and/or analysis tasks?" id="20"/>
-    <tableColumn name="15. Level of training in data science / analytics_x000a_What is the current level of training of your staff in data science or advanced analytics?_x000a_  (Tick the most appropriate level)" id="21"/>
-    <tableColumn name="16. Additional skills / training needed_x000a_Which additional skills or training would strengthen your team? (Select all that apply)" id="22"/>
-    <tableColumn name="17. Challenges in data security and compliance_x000a_What challenges does your section face regarding data security, confidentiality, or compliance with data-sharing regulations? (Select all that apply)" id="23"/>
-    <tableColumn name="18. Documented policies or SOPs_x000a_Does your section have documented data-management policies or standard operating procedures (SOPs)?" id="24"/>
-    <tableColumn name="19. Awareness of data-sharing and protection guidelines_x000a_Are you aware of the institute’s data-sharing and protection policy of 2024?" id="25"/>
-    <tableColumn name="20. Are you aware of the national Data Protection Act of 2019 and its requirements?  " id="26"/>
-    <tableColumn name="21. Do you have documented data-management policies or SOPs? " id="27"/>
-    <tableColumn name="22. Gaps in governance / security_x000a_Are there gaps in your current data governance or security that you would like addressed? _x000a_(Tick all that apply / open-ended)" id="28"/>
-    <tableColumn name="23. Support from the data science &amp; analytics section_x000a_How can the Data Science &amp; Analytics Section best support your section’s goals?_x000a_  (Open-ended)" id="29"/>
-    <tableColumn name="24. Opportunities for collaboration_x000a_Are there specific projects or upcoming studies where collaboration with the Data Science &amp; Analytics Section would be valuable?_x000a_  (Open-ended)" id="30"/>
-    <tableColumn name="25. Additional comments or suggestions_x000a_Do you have any other comments or suggestions regarding data management, analysis, or support from the Data Science &amp; Analytics Section? _x000a_(Open-ended)" id="31"/>
+    <tableColumn id="1" name="Timestamp"/>
+    <tableColumn id="2" name="1. Directorate_x000a_  (Please indicate the directorate you currently work in or expect to work in)  "/>
+    <tableColumn id="3" name="2. Division/Section_x000a_  (Please select your division or section)  "/>
+    <tableColumn id="4" name="3. Role/position_x000a_(Please state your current job title or position)  "/>
+    <tableColumn id="5" name="4. Types of data collected or managed _x000a_  What types of data does your section routinely collect or manage?_x000a_(Tick or specify as appropriate)  "/>
+    <tableColumn id="6" name="5. Software in use_x000a_What software applications do you currently use for data entry, processing, or analysis?_x000a_(Tick all that apply)"/>
+    <tableColumn id="7" name="6. Data collection tools in use _x000a_What digital or manual tools do you currently use for data collection?_x000a_(Tick all that apply)"/>
+    <tableColumn id="8" name="7. Databases in use _x000a_What databases or data management platforms does your section use for storing and organizing data?_x000a_(Tick all that apply)"/>
+    <tableColumn id="9" name="8. Data quality_x000a_a) Accuracy, Completeness, Consistency, Reliability_x000a_To what extent are the data in your section accurate, complete, consistent, and reliable?_x000a_(Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent) [Accuracy]"/>
+    <tableColumn id="10" name="8. Data quality_x000a_a) Accuracy, Completeness, Consistency, Reliability_x000a_To what extent are the data in your section accurate, complete, consistent, and reliable?_x000a_(Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent) [Completeness]"/>
+    <tableColumn id="11" name="8. Data quality_x000a_a) Accuracy, Completeness, Consistency, Reliability_x000a_To what extent are the data in your section accurate, complete, consistent, and reliable?_x000a_(Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent) [Consistency]"/>
+    <tableColumn id="12" name="8. Data quality_x000a_a) Accuracy, Completeness, Consistency, Reliability_x000a_To what extent are the data in your section accurate, complete, consistent, and reliable?_x000a_(Please rate on a scale of 1–5, where 1 = Very Poor and 5 = Excellent) [Reliability]"/>
+    <tableColumn id="13" name="9. Data Integrity_x000a_Data security and protection_x000a_To what extent are your data protected from unauthorized changes, corruption, or loss?_x000a_(Please rate on a scale of 1–5, where 1 = Not Protected and 5 = Fully Protected) [Access Control]"/>
+    <tableColumn id="14" name="9. Data Integrity_x000a_Data security and protection_x000a_To what extent are your data protected from unauthorized changes, corruption, or loss?_x000a_(Please rate on a scale of 1–5, where 1 = Not Protected and 5 = Fully Protected) [Backups/Redundancy]"/>
+    <tableColumn id="15" name="9. Data Integrity_x000a_Data security and protection_x000a_To what extent are your data protected from unauthorized changes, corruption, or loss?_x000a_(Please rate on a scale of 1–5, where 1 = Not Protected and 5 = Fully Protected) [Versioning/Change logs]"/>
+    <tableColumn id="16" name="10. Critical analytical outputs_x000a_What kinds of statistical or analytical outputs are most critical to your work?_x000a_  (Tick all that apply)"/>
+    <tableColumn id="17" name="11. Frequency of analytical support_x000a_How frequently do you require analytical support?"/>
+    <tableColumn id="18" name="12. Data utilization for decision-making_x000a_Are there areas where you feel your data are under-utilized for decision-making?"/>
+    <tableColumn id="19" name="13. Staff handling data_x000a_Does your section have staff members who handle data?"/>
+    <tableColumn id="20" name="14. Number of staff handling data_x000a_If Yes, how many staff members handle data management and/or analysis tasks?"/>
+    <tableColumn id="21" name="15. Level of training in data science / analytics_x000a_What is the current level of training of your staff in data science or advanced analytics?_x000a_  (Tick the most appropriate level)"/>
+    <tableColumn id="22" name="16. Additional skills / training needed_x000a_Which additional skills or training would strengthen your team? (Select all that apply)"/>
+    <tableColumn id="23" name="17. Challenges in data security and compliance_x000a_What challenges does your section face regarding data security, confidentiality, or compliance with data-sharing regulations? (Select all that apply)"/>
+    <tableColumn id="24" name="18. Documented policies or SOPs_x000a_Does your section have documented data-management policies or standard operating procedures (SOPs)?"/>
+    <tableColumn id="25" name="19. Awareness of data-sharing and protection guidelines_x000a_Are you aware of the institute’s data-sharing and protection policy of 2024?"/>
+    <tableColumn id="26" name="20. Are you aware of the national Data Protection Act of 2019 and its requirements?  "/>
+    <tableColumn id="27" name="21. Do you have documented data-management policies or SOPs? "/>
+    <tableColumn id="28" name="22. Gaps in governance / security_x000a_Are there gaps in your current data governance or security that you would like addressed? _x000a_(Tick all that apply / open-ended)"/>
+    <tableColumn id="29" name="23. Support from the data science &amp; analytics section_x000a_How can the Data Science &amp; Analytics Section best support your section’s goals?_x000a_  (Open-ended)"/>
+    <tableColumn id="30" name="24. Opportunities for collaboration_x000a_Are there specific projects or upcoming studies where collaboration with the Data Science &amp; Analytics Section would be valuable?_x000a_  (Open-ended)"/>
+    <tableColumn id="31" name="25. Additional comments or suggestions_x000a_Do you have any other comments or suggestions regarding data management, analysis, or support from the Data Science &amp; Analytics Section? _x000a_(Open-ended)"/>
   </tableColumns>
-  <tableStyleInfo name="Form responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1921,2458 +2147,2461 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="37.63"/>
-    <col customWidth="1" min="3" max="3" width="34.88"/>
-    <col customWidth="1" min="4" max="31" width="37.63"/>
-    <col customWidth="1" min="32" max="37" width="18.88"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" customWidth="1"/>
+    <col min="4" max="31" width="37.6640625" customWidth="1"/>
+    <col min="32" max="37" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" s="17" customFormat="1" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45931.8916212037</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="U2" s="5" t="s">
+      <c r="S2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="2">
+        <v>3</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="5" t="s">
+      <c r="X2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="7"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="8">
-        <v>45932.23125625</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45932.231256250001</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="R3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" s="9" t="s">
+      <c r="X3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AD3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="11">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>45932.524664247685</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="R4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="9">
+        <v>2</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="X4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB4" s="12" t="s">
+      <c r="X4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AD4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AE4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8">
-        <v>45932.54802747685</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45932.548027476849</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="9" t="s">
+      <c r="R5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="X5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB5" s="9" t="s">
+      <c r="X5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AC5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AD5" s="9" t="s">
+      <c r="AD5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AE5" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="11">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>45932.628935243054</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="Q6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="U6" s="12" t="s">
+      <c r="R6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="W6" s="12" t="s">
+      <c r="W6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB6" s="12" t="s">
+      <c r="Y6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AC6" s="12" t="s">
+      <c r="AC6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AD6" s="12" t="s">
+      <c r="AD6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AE6" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="8">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>45932.655994988425</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U7" s="9" t="s">
+      <c r="R7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="X7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB7" s="9" t="s">
+      <c r="X7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AC7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AD7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AE7" s="10" t="s">
+      <c r="AE7" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11">
-        <v>45933.38963173611</v>
-      </c>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>45933.389631736107</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T8" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="U8" s="12" t="s">
+      <c r="R8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="9">
+        <v>5</v>
+      </c>
+      <c r="U8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V8" s="12" t="s">
+      <c r="V8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="W8" s="12" t="s">
+      <c r="W8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="X8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB8" s="12" t="s">
+      <c r="X8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AC8" s="12" t="s">
+      <c r="AC8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="AD8" s="12" t="s">
+      <c r="AD8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AE8" s="13" t="s">
+      <c r="AE8" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="8">
-        <v>45933.39951981482</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45933.399519814819</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" s="9" t="s">
+      <c r="R9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="X9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB9" s="9" t="s">
+      <c r="X9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC9" s="9" t="s">
+      <c r="AC9" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AD9" s="9" t="s">
+      <c r="AD9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AE9" s="10" t="s">
+      <c r="AE9" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="11">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>45933.403022708335</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="U10" s="12" t="s">
+      <c r="R10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V10" s="12" t="s">
+      <c r="V10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W10" s="12" t="s">
+      <c r="W10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="X10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB10" s="12" t="s">
+      <c r="X10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AC10" s="12" t="s">
+      <c r="AC10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AD10" s="12" t="s">
+      <c r="AD10" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AE10" s="13" t="s">
+      <c r="AE10" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="8">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>45933.503744953705</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" s="9" t="s">
+      <c r="R11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="X11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB11" s="9" t="s">
+      <c r="X11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC11" s="9" t="s">
+      <c r="AC11" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AD11" s="9" t="s">
+      <c r="AD11" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AE11" s="10" t="s">
+      <c r="AE11" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="11">
-        <v>45933.66952858796</v>
-      </c>
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>45933.669528587961</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="S12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T12" s="12" t="s">
+      <c r="S12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="U12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="W12" s="12" t="s">
+      <c r="W12" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="X12" s="12" t="s">
+      <c r="X12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA12" s="12" t="s">
+      <c r="Y12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AB12" s="12" t="s">
+      <c r="AB12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AC12" s="12" t="s">
+      <c r="AC12" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AD12" s="12" t="s">
+      <c r="AD12" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AE12" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8">
-        <v>45934.68495377315</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45934.684953773147</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T13" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="U13" s="9" t="s">
+      <c r="R13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="6">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V13" s="9" t="s">
+      <c r="V13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="X13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y13" s="9" t="s">
+      <c r="X13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Z13" s="9" t="s">
+      <c r="Z13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="9" t="s">
+      <c r="AA13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AB13" s="9" t="s">
+      <c r="AB13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC13" s="9" t="s">
+      <c r="AC13" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AD13" s="9" t="s">
+      <c r="AD13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AE13" s="10" t="s">
+      <c r="AE13" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="11">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>45936.49950795139</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="T14" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="U14" s="12" t="s">
+      <c r="R14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="9">
+        <v>15</v>
+      </c>
+      <c r="U14" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="V14" s="12" t="s">
+      <c r="V14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W14" s="12" t="s">
+      <c r="W14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="X14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB14" s="12" t="s">
+      <c r="X14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AC14" s="12" t="s">
+      <c r="AC14" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AD14" s="12" t="s">
+      <c r="AD14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AE14" s="13" t="s">
+      <c r="AE14" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8">
-        <v>45936.50704104167</v>
-      </c>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45936.507041041667</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T15" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="U15" s="9" t="s">
+      <c r="S15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="6">
+        <v>3</v>
+      </c>
+      <c r="U15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="V15" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="W15" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="X15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Y15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA15" s="9" t="s">
+      <c r="Y15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AB15" s="9" t="s">
+      <c r="AB15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC15" s="9" t="s">
+      <c r="AC15" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AD15" s="9" t="s">
+      <c r="AD15" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AE15" s="10" t="s">
+      <c r="AE15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="11">
-        <v>45936.51030025463</v>
-      </c>
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>45936.510300254631</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="P16" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="R16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="U16" s="12" t="s">
+      <c r="R16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" s="9">
+        <v>10</v>
+      </c>
+      <c r="U16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V16" s="12" t="s">
+      <c r="V16" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="W16" s="12" t="s">
+      <c r="W16" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="X16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB16" s="12" t="s">
+      <c r="X16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AC16" s="12" t="s">
+      <c r="AC16" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="AD16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE16" s="13" t="s">
+      <c r="AD16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE16" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8">
-        <v>45936.5461590162</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45936.546159016201</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="O17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T17" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="U17" s="9" t="s">
+      <c r="S17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" s="6">
+        <v>4</v>
+      </c>
+      <c r="U17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="V17" s="9" t="s">
+      <c r="V17" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="W17" s="9" t="s">
+      <c r="W17" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="X17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y17" s="9" t="s">
+      <c r="X17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Z17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA17" s="9" t="s">
+      <c r="Z17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AB17" s="9" t="s">
+      <c r="AB17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AC17" s="9" t="s">
+      <c r="AC17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="AD17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE17" s="10" t="s">
+      <c r="AD17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE17" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="11">
-        <v>45936.54948006944</v>
-      </c>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>45936.549480069443</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R18" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="U18" s="12" t="s">
+      <c r="R18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="V18" s="12" t="s">
+      <c r="V18" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="W18" s="12" t="s">
+      <c r="W18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="X18" s="12" t="s">
+      <c r="X18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z18" s="12" t="s">
+      <c r="Y18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA18" s="12" t="s">
+      <c r="AA18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AB18" s="12" t="s">
+      <c r="AB18" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="AC18" s="12" t="s">
+      <c r="AC18" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AD18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE18" s="13" t="s">
+      <c r="AD18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE18" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8">
-        <v>45936.65569912037</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45936.655699120369</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T19" s="9" t="s">
+      <c r="S19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T19" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="U19" s="9" t="s">
+      <c r="U19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="V19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="W19" s="9" t="s">
+      <c r="W19" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="X19" s="9" t="s">
+      <c r="X19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Y19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB19" s="9" t="s">
+      <c r="Y19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC19" s="9" t="s">
+      <c r="AC19" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="AD19" s="9" t="s">
+      <c r="AD19" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="AE19" s="10" t="s">
+      <c r="AE19" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="11">
-        <v>45936.67213659722</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>45936.672136597219</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="U20" s="12" t="s">
+      <c r="R20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="V20" s="12" t="s">
+      <c r="V20" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="W20" s="12" t="s">
+      <c r="W20" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="X20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB20" s="12" t="s">
+      <c r="X20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB20" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AC20" s="12" t="s">
+      <c r="AC20" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AD20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE20" s="13" t="s">
+      <c r="AD20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE20" s="10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="8">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>45936.773026192124</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="R21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="T21" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="V21" s="9" t="s">
+      <c r="R21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" s="6">
+        <v>2</v>
+      </c>
+      <c r="V21" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="W21" s="9" t="s">
+      <c r="W21" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="X21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB21" s="9" t="s">
+      <c r="X21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC21" s="9" t="s">
+      <c r="AC21" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AD21" s="9" t="s">
+      <c r="AD21" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AE21" s="10" t="s">
+      <c r="AE21" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="11">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>45937.406810960645</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R22" s="12" t="s">
+      <c r="R22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="S22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="U22" s="12" t="s">
+      <c r="S22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="W22" s="12" t="s">
+      <c r="W22" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="X22" s="12" t="s">
+      <c r="X22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y22" s="12" t="s">
+      <c r="Y22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Z22" s="12" t="s">
+      <c r="Z22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA22" s="12" t="s">
+      <c r="AA22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AB22" s="12" t="s">
+      <c r="AB22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AC22" s="12" t="s">
+      <c r="AC22" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AD22" s="12" t="s">
+      <c r="AD22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AE22" s="13" t="s">
+      <c r="AE22" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="8">
-        <v>45937.63485287037</v>
-      </c>
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45937.634852870367</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="O23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="P23" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="R23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T23" s="9" t="s">
+      <c r="R23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="V23" s="9" t="s">
+      <c r="V23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="W23" s="9" t="s">
+      <c r="W23" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="X23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB23" s="9" t="s">
+      <c r="X23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC23" s="9" t="s">
+      <c r="AC23" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AD23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE23" s="10" t="s">
+      <c r="AD23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE23" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="11">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>45937.918263541666</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="O24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="P24" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="Q24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T24" s="12" t="s">
+      <c r="R24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T24" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="U24" s="12" t="s">
+      <c r="U24" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="V24" s="12" t="s">
+      <c r="V24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W24" s="12" t="s">
+      <c r="W24" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="X24" s="12" t="s">
+      <c r="X24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z24" s="12" t="s">
+      <c r="Y24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AA24" s="12" t="s">
+      <c r="AA24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AB24" s="12" t="s">
+      <c r="AB24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AC24" s="12" t="s">
+      <c r="AC24" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="AD24" s="12" t="s">
+      <c r="AD24" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="AE24" s="13" t="s">
+      <c r="AE24" s="10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="8">
-        <v>45938.51630898148</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45938.516308981481</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="Q25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T25" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="U25" s="9" t="s">
+      <c r="S25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="6">
+        <v>4</v>
+      </c>
+      <c r="U25" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="V25" s="9" t="s">
+      <c r="V25" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="W25" s="9" t="s">
+      <c r="W25" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="X25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB25" s="9" t="s">
+      <c r="X25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB25" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="AC25" s="9" t="s">
+      <c r="AC25" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="AD25" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE25" s="10" t="s">
+      <c r="AD25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE25" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="14">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>45938.845090636576</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="S26" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="U26" s="15" t="s">
+      <c r="R26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="V26" s="15" t="s">
+      <c r="V26" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="X26" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA26" s="15" t="s">
+      <c r="X26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AB26" s="15" t="s">
+      <c r="AB26" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AC26" s="15" t="s">
+      <c r="AC26" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="AD26" s="15" t="s">
+      <c r="AD26" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="AE26" s="16" t="s">
+      <c r="AE26" s="13" t="s">
         <v>225</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/NAS-KIPRE (Responses).xlsx
+++ b/NAS-KIPRE (Responses).xlsx
@@ -2159,7 +2159,7 @@
   </sheetPr>
   <dimension ref="A1:AE26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
@@ -2169,7 +2169,9 @@
     <col min="1" max="1" width="18.88671875" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="34.88671875" customWidth="1"/>
-    <col min="4" max="31" width="37.6640625" customWidth="1"/>
+    <col min="4" max="28" width="37.6640625" customWidth="1"/>
+    <col min="29" max="30" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.6640625" customWidth="1"/>
     <col min="32" max="37" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2268,7 +2270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45931.8916212037</v>
       </c>
@@ -2357,7 +2359,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="4"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>45932.231256250001</v>
       </c>
@@ -2449,7 +2451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45932.524664247685</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>45932.548027476849</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45932.628935243054</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>45932.655994988425</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45933.389631736107</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45933.399519814819</v>
       </c>
@@ -3007,7 +3009,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45933.403022708335</v>
       </c>
@@ -3099,7 +3101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>45933.503744953705</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45933.669528587961</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>45934.684953773147</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45936.49950795139</v>
       </c>
@@ -3476,7 +3478,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>45936.507041041667</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45936.510300254631</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>45936.546159016201</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>45936.549480069443</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>45936.655699120369</v>
       </c>
@@ -3948,7 +3950,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>45936.672136597219</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>45936.773026192124</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>45937.406810960645</v>
       </c>
@@ -4221,7 +4223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>45937.634852870367</v>
       </c>
@@ -4316,7 +4318,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>45937.918263541666</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>45938.516308981481</v>
       </c>
@@ -4506,7 +4508,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>45938.845090636576</v>
       </c>
